--- a/IMD_Radar_locations.xlsx
+++ b/IMD_Radar_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rizvi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rizvi/Downloads/syedhamidali-imd-d6c3d88/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CC5E31-D260-C44F-9856-481A9C574CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06AE208-78CC-E74A-92B2-C968730AA475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" xr2:uid="{7711926C-DF69-B345-A2BE-0F3323AF3D48}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" xr2:uid="{7711926C-DF69-B345-A2BE-0F3323AF3D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>lat</t>
   </si>
@@ -131,19 +131,86 @@
   </si>
   <si>
     <t>Range</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <r>
+      <t>IMD | IMD-DWR-Network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (n.d.). IMD | IMD-DWR-Network. Retrieved October 1, 2021, from https://mausam.imd.gov.in/imd_latest/contents/imd-dwr-network.php</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">State Meteorological Service, T. T. (n.d.). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WMO Radar Database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. WMO Radar Database. Retrieved October 1, 2022, from https://wrd.mgm.gov.tr/Radar/Details/azczYjdPSzBaOVIrZDZjNEJHZWtxdz09</t>
+    </r>
+  </si>
+  <si>
+    <t>Shivangi Mishra, J. Shanmuga Sundari, B. Channabasava &amp; V. K. Anandan (2020) First indigenously developed polarimetric C-band Doppler weather radar in India and its first hand validation results, Journal of Electromagnetic Waves and Applications, 34:6, 825-840, DOI: 10.1080/09205071.2020.1742798</t>
+  </si>
+  <si>
+    <t>Doyle, A., Stein, T. and Turner, A. (2021), Temporal patterns in radar-observed convective cell development during the 2016 monsoon onset. Weather, 76: 180-184. https://doi.org/10.1002/wea.3969</t>
+  </si>
+  <si>
+    <t>Vishakhapatnam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,8 +233,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6052E7AD-5BE5-3640-BA26-EC5FD50602C7}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="156" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="156" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,6 +986,229 @@
         <v>250</v>
       </c>
     </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="2">
+        <v>10.91</v>
+      </c>
+      <c r="C58" s="2">
+        <v>79.84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="2">
+        <v>13.07</v>
+      </c>
+      <c r="C59" s="2">
+        <v>80.290000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="2">
+        <v>16.18</v>
+      </c>
+      <c r="C60" s="2">
+        <v>81.150000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="2">
+        <v>17.75</v>
+      </c>
+      <c r="C61" s="2">
+        <v>83.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2">
+        <v>22.57</v>
+      </c>
+      <c r="C62" s="2">
+        <v>88.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2">
+        <v>25.58</v>
+      </c>
+      <c r="C63" s="2">
+        <v>85.09</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="2">
+        <v>23.89</v>
+      </c>
+      <c r="C64" s="2">
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C65" s="2">
+        <v>72.81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>79.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="2">
+        <v>23.24</v>
+      </c>
+      <c r="C67" s="2">
+        <v>77.42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="2">
+        <v>28.59</v>
+      </c>
+      <c r="C68" s="2">
+        <v>77.22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2">
+        <v>30.36</v>
+      </c>
+      <c r="C69" s="2">
+        <v>76.45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
